--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-04.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-04.xlsx
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="？？？"]  赦罪師、答えよ。
+    <t xml:space="preserve">[name="？？？"]  聴罪師、答えよ。
 </t>
   </si>
   <si>
@@ -432,23 +432,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="赦罪師"]  はっきりと存じておられることを、改めて私めに問う必要がお有りでしょうか、摂政王さま？
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="赦罪師"]  蓄積も無く、背景も無く、資本すら無い普通の若者が、己の力のみでウルサスの重要都市を落とすなど不可能であります。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="赦罪師"]  非感染者である統治者たちには、彼女の行動に隠されたロジックを知ることができません。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="赦罪師"]  彼らは過剰に反応し、ただ恐れるばかりか、破壊的な方法によってその局面を打開しようとするのみ……ええ、感染者がもたらす混乱した局面を、ですね。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="赦罪師"]  ですが、我々サルカズには、盤上の様子とこの先に打たれる手が、この上なくはっきりと見えております。
+    <t xml:space="preserve">[name="聴罪師"]  はっきりと存じておられることを、改めて私めに問う必要がお有りでしょうか、摂政王さま？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="聴罪師"]  蓄積も無く、背景も無く、資本すら無い普通の若者が、己の力のみでウルサスの重要都市を落とすなど不可能であります。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="聴罪師"]  非感染者である統治者たちには、彼女の行動に隠されたロジックを知ることができません。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="聴罪師"]  彼らは過剰に反応し、ただ恐れるばかりか、破壊的な方法によってその局面を打開しようとするのみ……ええ、感染者がもたらす混乱した局面を、ですね。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="聴罪師"]  ですが、我々サルカズには、盤上の様子とこの先に打たれる手が、この上なくはっきりと見えております。
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="赦罪師"]  未来がない、と申し上げます。殿下が予見なさった通り、全く未来がない。彼らは正規の軍隊ではありません。そして、我々が必要としているのは十分な数の暴力です。
+    <t xml:space="preserve">[name="聴罪師"]  未来がない、と申し上げます。殿下が予見なさった通り、全く未来がない。彼らは正規の軍隊ではありません。そして、我々が必要としているのは十分な数の暴力です。
 </t>
   </si>
   <si>
@@ -464,15 +464,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="赦罪師"]  おっしゃる通りです、殿下。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="赦罪師"]  彼女がもたらした局面も、彼女がそれの撹乱に要する力も、彼女が只の感染者のリーダー、あるいは、単なる戴冠準備の整った後継者ではないことを証明しています。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="赦罪師"]  彼女は策略家です。
+    <t xml:space="preserve">[name="聴罪師"]  おっしゃる通りです、殿下。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="聴罪師"]  彼女がもたらした局面も、彼女がそれの撹乱に要する力も、彼女が只の感染者のリーダー、あるいは、単なる戴冠準備の整った後継者ではないことを証明しています。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="聴罪師"]  彼女は策略家です。
 </t>
   </si>
   <si>
@@ -480,11 +480,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="赦罪師"]  では、二つ朗報が。一つは、「魔王」の調査についてですが、これはすでに目処がついております。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="赦罪師"]  ロドスの主は、一度も変わっていません。
+    <t xml:space="preserve">[name="聴罪師"]  では、二つ朗報が。一つは、「魔王」の調査についてですが、これはすでに目処がついております。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="聴罪師"]  ロドスの主は、一度も変わっていません。
 </t>
   </si>
   <si>
@@ -492,11 +492,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="赦罪師"]  どうかお怒りにならずに、二つ目の朗報をお聞きください。
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="赦罪師"]  「彼女」の準備が整いました。
+    <t xml:space="preserve">[name="聴罪師"]  どうかお怒りにならずに、二つ目の朗報をお聞きください。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="聴罪師"]  「彼女」の準備が整いました。
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Confessarius"]  “She” is ready.
+    <t xml:space="preserve">[name="Confessarius"]  'She' is ready.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-04.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_07-04.xlsx
@@ -520,7 +520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  ...Don’t do it.
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Don't do it.
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"]  Of course I’m willing to return her to you... But the cuffs on her body will tear Lungmen in half.
+    <t xml:space="preserve">[name="Kashchey"]  Of course I'm willing to return her to you... But the cuffs on her body will tear Lungmen in half.
 </t>
   </si>
   <si>
@@ -540,7 +540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"]  But now, our roles are reversed. I’m the guest, as well as the poisoner.
+    <t xml:space="preserve">[name="Kashchey"]  But now, our roles are reversed. I'm the guest, as well as the poisoner.
 </t>
   </si>
   <si>
@@ -552,11 +552,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"]  My role is irrelevant. Your brother’s tragedy may have come from a Unicorn’s secret orders, or from the wrath of a Lung. Whether it was me who leaked the news... ultimately, does not matter.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"]  What’s important, Wei, the one thing you mustn’t forget... is that your Chi Xiao drank his blood. You did it.
+    <t xml:space="preserve">[name="Kashchey"]  My role is irrelevant. Your brother's tragedy may have come from a Unicorn's secret orders, or from the wrath of a Lung. Whether it was me who leaked the news... ultimately, does not matter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  What's important, Wei, the one thing you mustn't forget... is that your Chi Xiao drank his blood. You did it.
 </t>
   </si>
   <si>
@@ -568,7 +568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  You’ve gone too far.
+    <t xml:space="preserve">[name="Wei Yenwu"]  You've gone too far.
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"]  Don’t draw that sword. You know the consequences.
+    <t xml:space="preserve">[name="Kashchey"]  Don't draw that sword. You know the consequences.
 </t>
   </si>
   <si>
@@ -588,7 +588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"]  Relax, Wei. I’ve let you choose your own fate. If you don’t take my generous offer, then you and I both, all your citizens, and these two lovely sisters... will all perish.
+    <t xml:space="preserve">[name="Kashchey"]  Relax, Wei. I've let you choose your own fate. If you don't take my generous offer, then you and I both, all your citizens, and these two lovely sisters... will all perish.
 </t>
   </si>
   <si>
@@ -600,23 +600,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"]  You’ve always had a choice, isn’t that right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"]  What will your precious citizens think when they hear that their lives have been placed upon a scale? And on the other side... is a young dragon whose name they’ve never heard.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"]  As for me, I don’t even have a reason to hurt her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  ...Since I was negligent enough to let you step foot back into this city, there’s no reason to let you leave again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Tal!
+    <t xml:space="preserve">[name="Kashchey"]  You've always had a choice, isn't that right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  What will your precious citizens think when they hear that their lives have been placed upon a scale? And on the other side... is a young dragon whose name they've never heard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  As for me, I don't even have a reason to hurt her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Since I was negligent enough to let you step foot back into this city, there's no reason to let you leave again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Tal!
 </t>
   </si>
   <si>
@@ -628,11 +628,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I’ll kill you myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"]  Now, now. There’s no need for that.
+    <t xml:space="preserve">[name="Wei Yenwu"]  I'll kill you myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Now, now. There's no need for that.
 </t>
   </si>
   <si>
@@ -644,15 +644,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kashchey"]  But you’ll also have to think about defending against me. Defeating me. Striking me down. Annihilating me... And, what I am going to do next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kashchey"]  Wei, you’re actually afraid of me, aren’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  She’s here.
+    <t xml:space="preserve">[name="Kashchey"]  But you'll also have to think about defending against me. Defeating me. Striking me down. Annihilating me... And, what I am going to do next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Wei, you're actually afraid of me, aren't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  She's here.
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’ll kill her myself.
+    <t xml:space="preserve">[name="Talulah"]  I'll kill her myself.
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Regent"]  Eliminating them will not sever Talulah’s power. We lack an opportunity to take her out.
+    <t xml:space="preserve">[name="Regent"]  Eliminating them will not sever Talulah's power. We lack an opportunity to take her out.
 </t>
   </si>
   <si>
@@ -728,7 +728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Regent"]  Don’t waste time. We need her to begin right now.
+    <t xml:space="preserve">[name="Regent"]  Don't waste time. We need her to begin right now.
 </t>
   </si>
   <si>
